--- a/data/climate_data_availability/6140_data.xlsx
+++ b/data/climate_data_availability/6140_data.xlsx
@@ -1,24 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20304"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5709607FFE50BEEBCF0994830F3B7B8ACED7A28A" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="23955" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="179016" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>inventory nr</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>month</t>
@@ -27,16 +31,13 @@
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>temp_min</t>
   </si>
   <si>
     <t>temp_max</t>
+  </si>
+  <si>
+    <t>precip</t>
   </si>
   <si>
     <t>psychrometry_temp_dry</t>
@@ -57,26 +58,38 @@
     <t>haut bar. Luc</t>
   </si>
   <si>
-    <t>07.00</t>
+    <t>t1</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>actino</t>
+  </si>
+  <si>
+    <t>hygro</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Alt</t>
   </si>
   <si>
     <t>Kisantu-Cadulac</t>
-  </si>
-  <si>
-    <t>hygrometricite_max</t>
-  </si>
-  <si>
-    <t>hygrometricite_min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -179,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,9 +228,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,6 +280,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,37 +472,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD118"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <pane ySplit="1" topLeftCell="D2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -479,18 +529,30 @@
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>6140</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -532,18 +594,21 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>6140</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -585,18 +650,21 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>6140</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -638,18 +706,21 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>6140</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -691,18 +762,21 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>6140</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -744,18 +818,21 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6140</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -797,18 +874,21 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>6140</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -850,18 +930,21 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>6140</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -903,18 +986,21 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>6140</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -956,18 +1042,21 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>6140</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1009,18 +1098,21 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>6140</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1062,18 +1154,21 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>6140</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1115,18 +1210,21 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>6140</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1168,18 +1266,21 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>6140</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1221,18 +1322,21 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>6140</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1274,18 +1378,21 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>6140</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1327,18 +1434,21 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>6140</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1380,18 +1490,21 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>6140</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -1433,18 +1546,21 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>6140</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1486,18 +1602,21 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>6140</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1539,18 +1658,21 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>6140</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -1592,18 +1714,21 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>6140</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1645,18 +1770,21 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>6140</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1698,18 +1826,21 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>6140</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1751,18 +1882,21 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>6140</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1804,18 +1938,21 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>6140</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1857,18 +1994,21 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>6140</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1910,18 +2050,21 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>6140</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1963,18 +2106,21 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>6140</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -2016,18 +2162,21 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>6140</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2069,18 +2218,21 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>6140</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -2122,18 +2274,21 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>6140</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -2175,18 +2330,21 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>6140</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>9</v>
@@ -2228,18 +2386,21 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>6140</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C35">
         <v>10</v>
@@ -2281,18 +2442,21 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>6140</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>11</v>
@@ -2334,18 +2498,21 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>6140</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -2387,18 +2554,21 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>6140</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -2440,18 +2610,21 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>6140</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -2493,18 +2666,21 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>6140</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2546,18 +2722,21 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>6140</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -2599,18 +2778,21 @@
         <v>0</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>6140</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C42">
         <v>10</v>
@@ -2652,18 +2834,21 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>6140</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>11</v>
@@ -2705,18 +2890,21 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>6140</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>12</v>
@@ -2758,18 +2946,21 @@
         <v>0</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>6140</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2811,18 +3002,21 @@
         <v>0</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>6140</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -2864,18 +3058,21 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>6140</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -2917,18 +3114,21 @@
         <v>0</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>6140</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -2970,18 +3170,21 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>6140</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -3023,18 +3226,21 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>6140</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -3076,18 +3282,21 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>6140</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -3129,18 +3338,21 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>6140</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C52">
         <v>9</v>
@@ -3182,18 +3394,21 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>6140</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
         <v>10</v>
@@ -3235,18 +3450,21 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>6140</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>11</v>
@@ -3288,18 +3506,21 @@
         <v>0</v>
       </c>
       <c r="P54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>6140</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>12</v>
@@ -3341,18 +3562,21 @@
         <v>0</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>6140</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -3394,18 +3618,21 @@
         <v>0</v>
       </c>
       <c r="P56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>6140</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3447,18 +3674,21 @@
         <v>0</v>
       </c>
       <c r="P57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>6140</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3500,18 +3730,21 @@
         <v>0</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>6140</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -3553,18 +3786,21 @@
         <v>0</v>
       </c>
       <c r="P59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>6140</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -3606,18 +3842,21 @@
         <v>0</v>
       </c>
       <c r="P60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>6140</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -3659,18 +3898,21 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>6140</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>7</v>
@@ -3712,18 +3954,21 @@
         <v>0</v>
       </c>
       <c r="P62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>6140</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>8</v>
@@ -3765,18 +4010,21 @@
         <v>0</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>6140</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>9</v>
@@ -3818,18 +4066,21 @@
         <v>0</v>
       </c>
       <c r="P64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>6140</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -3871,18 +4122,21 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>6140</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>11</v>
@@ -3924,18 +4178,21 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>6140</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -3977,18 +4234,21 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>6140</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4030,18 +4290,21 @@
         <v>0</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>6140</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4083,18 +4346,21 @@
         <v>0</v>
       </c>
       <c r="P69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>6140</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -4136,18 +4402,21 @@
         <v>0</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>6140</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4189,18 +4458,21 @@
         <v>0</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>6140</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4242,18 +4514,21 @@
         <v>0</v>
       </c>
       <c r="P72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>6140</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>6</v>
@@ -4295,18 +4570,21 @@
         <v>0</v>
       </c>
       <c r="P73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>6140</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -4348,18 +4626,21 @@
         <v>0</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>6140</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -4401,18 +4682,21 @@
         <v>0</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>6140</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -4454,18 +4738,21 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>6140</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>7</v>
@@ -4507,18 +4794,21 @@
         <v>0</v>
       </c>
       <c r="P77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>6140</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>9</v>
@@ -4560,18 +4850,21 @@
         <v>0</v>
       </c>
       <c r="P78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>6140</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>10</v>
@@ -4613,18 +4906,21 @@
         <v>0</v>
       </c>
       <c r="P79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>6140</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>11</v>
@@ -4666,18 +4962,21 @@
         <v>0</v>
       </c>
       <c r="P80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>6140</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>12</v>
@@ -4719,18 +5018,21 @@
         <v>0</v>
       </c>
       <c r="P81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>6140</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C82">
         <v>8</v>
@@ -4772,9 +5074,12 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
         <v>1</v>
       </c>
     </row>
@@ -4784,24 +5089,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
